--- a/main/ig/StructureDefinition-FrMedicationReconciliationComposition.xlsx
+++ b/main/ig/StructureDefinition-FrMedicationReconciliationComposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T14:38:29+00:00</t>
+    <t>2024-07-11T12:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrMedicationReconciliationComposition.xlsx
+++ b/main/ig/StructureDefinition-FrMedicationReconciliationComposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T12:41:29+00:00</t>
+    <t>2024-08-13T14:32:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrMedicationReconciliationComposition.xlsx
+++ b/main/ig/StructureDefinition-FrMedicationReconciliationComposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T11:48:25+00:00</t>
+    <t>2024-09-03T12:38:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrMedicationReconciliationComposition.xlsx
+++ b/main/ig/StructureDefinition-FrMedicationReconciliationComposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T12:38:03+00:00</t>
+    <t>2024-09-18T09:33:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -825,7 +825,7 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>

--- a/main/ig/StructureDefinition-FrMedicationReconciliationComposition.xlsx
+++ b/main/ig/StructureDefinition-FrMedicationReconciliationComposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T09:33:57+00:00</t>
+    <t>2024-11-13T15:16:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
